--- a/5mars 2013/output_segmentation.xlsx
+++ b/5mars 2013/output_segmentation.xlsx
@@ -1614,11 +1614,11 @@
         <c:hiLowLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="64246784"/>
-        <c:axId val="99894400"/>
+        <c:axId val="98499072"/>
+        <c:axId val="78155136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64246784"/>
+        <c:axId val="98499072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1647,7 +1647,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99894400"/>
+        <c:crossAx val="78155136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1655,7 +1655,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99894400"/>
+        <c:axId val="78155136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1689,7 +1689,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64246784"/>
+        <c:crossAx val="98499072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2652,11 +2652,11 @@
         <c:hiLowLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="41944064"/>
-        <c:axId val="130439936"/>
+        <c:axId val="101802496"/>
+        <c:axId val="78157440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="41944064"/>
+        <c:axId val="101802496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2685,7 +2685,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130439936"/>
+        <c:crossAx val="78157440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2693,7 +2693,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="130439936"/>
+        <c:axId val="78157440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2727,7 +2727,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41944064"/>
+        <c:crossAx val="101802496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3714,11 +3714,11 @@
         <c:hiLowLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="130178560"/>
-        <c:axId val="99900736"/>
+        <c:axId val="101804032"/>
+        <c:axId val="102424576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="130178560"/>
+        <c:axId val="101804032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3747,7 +3747,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99900736"/>
+        <c:crossAx val="102424576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3755,7 +3755,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99900736"/>
+        <c:axId val="102424576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3789,7 +3789,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130178560"/>
+        <c:crossAx val="101804032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4725,11 +4725,11 @@
         <c:hiLowLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="60280832"/>
-        <c:axId val="87049344"/>
+        <c:axId val="98500096"/>
+        <c:axId val="102426880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="60280832"/>
+        <c:axId val="98500096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4758,7 +4758,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87049344"/>
+        <c:crossAx val="102426880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4766,7 +4766,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87049344"/>
+        <c:axId val="102426880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4800,7 +4800,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60280832"/>
+        <c:crossAx val="98500096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5700,11 +5700,11 @@
         <c:hiLowLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="129980928"/>
-        <c:axId val="87052224"/>
+        <c:axId val="102806016"/>
+        <c:axId val="102429184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="129980928"/>
+        <c:axId val="102806016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5733,7 +5733,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87052224"/>
+        <c:crossAx val="102429184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5741,7 +5741,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87052224"/>
+        <c:axId val="102429184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5775,7 +5775,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129980928"/>
+        <c:crossAx val="102806016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6249,7 +6249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O706"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A649" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="S713" sqref="S713"/>
     </sheetView>
   </sheetViews>
